--- a/QA/Functional Tests/Export/Relativity/This Instance/Push Documents/Metadata/Export medatada to another workspace.xlsx
+++ b/QA/Functional Tests/Export/Relativity/This Instance/Push Documents/Metadata/Export medatada to another workspace.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\integrationpoints\QA\Functional Tests\Export\Relativity\This Instance\Push Documents\Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fwrona\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="65">
   <si>
     <t>Export medatada to another workspace</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Copy Native File</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Use Folder Path Information</t>
   </si>
   <si>
@@ -236,6 +233,51 @@
   </si>
   <si>
     <t>Job failed</t>
+  </si>
+  <si>
+    <t>Document Folder Path</t>
+  </si>
+  <si>
+    <t>Overlay Only</t>
+  </si>
+  <si>
+    <t>Read From Field</t>
+  </si>
+  <si>
+    <t>Documents have proper structure of folders in destination workspace and status of job is completed</t>
+  </si>
+  <si>
+    <t>Documents have proper structure of folders in destination worskpace are overlaid and status of job is completed</t>
+  </si>
+  <si>
+    <t>Documents have proper structure of folders indestination worskpace are overlaid and status of job is completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destination Workspace has no documents; run Set Relativity Folder Path Field script  </t>
+  </si>
+  <si>
+    <t>Destination Workspace has documents; run Set Relativity Folder Path Field script</t>
+  </si>
+  <si>
+    <t>Read From Folder Path</t>
+  </si>
+  <si>
+    <t>Export This Instance Push Documents Metadata Append Only Read From Field</t>
+  </si>
+  <si>
+    <t>Export This Instance Push Documents Metadata Overlay Only Read From Field</t>
+  </si>
+  <si>
+    <t>Export This Instance Push Documents Metadata Append Overlay Read From Field</t>
+  </si>
+  <si>
+    <t>Export This Instance Push Documents Metadata Append Only Read From Folder Path</t>
+  </si>
+  <si>
+    <t>Export This Instance Push Documents Metadata Overlay Only Read From Folder Path</t>
+  </si>
+  <si>
+    <t>Export This Instance Push Documents Metadata Append Overlay Read From Folder Path</t>
   </si>
 </sst>
 </file>
@@ -794,18 +836,6 @@
   </cellStyleXfs>
   <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -813,12 +843,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,12 +968,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,22 +979,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1293,505 +1335,877 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="8" width="20.7109375" customWidth="1"/>
+    <col min="4" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="71"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
     </row>
-    <row r="2" spans="1:8" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:14" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="N4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
       <c r="B5" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="69"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="I5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="66" t="s">
+    <row r="6" spans="1:14" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="L6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="17" t="s">
         <v>20</v>
       </c>
+      <c r="I7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="24" t="s">
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="21" t="s">
         <v>21</v>
       </c>
+      <c r="I8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25" t="s">
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="I9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="21" t="s">
         <v>26</v>
       </c>
+      <c r="I10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="25" t="s">
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="21" t="s">
         <v>28</v>
       </c>
+      <c r="I11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32" t="s">
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="32" t="s">
+      <c r="D12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36" t="s">
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="33" t="s">
         <v>32</v>
       </c>
+      <c r="I13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41" t="s">
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="37" t="s">
         <v>32</v>
       </c>
+      <c r="I14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="41" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="H15" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="J15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="K15" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="36" t="s">
         <v>35</v>
       </c>
+      <c r="N15" s="35" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="41" t="s">
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="H16" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="I16" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="K16" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="42" t="s">
         <v>38</v>
       </c>
+      <c r="N16" s="37" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="41" t="s">
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="51" t="s">
+      <c r="D17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="49" t="s">
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="43" t="s">
+      <c r="D18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>43</v>
+      <c r="D19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="41" t="s">
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>30</v>
+      <c r="D20" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="41" t="s">
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D21" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E21" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F21" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G21" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H21" s="50" t="s">
         <v>38</v>
       </c>
+      <c r="I21" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="51" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54" t="s">
+    <row r="22" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="52"/>
+      <c r="B22" s="58" t="s">
         <v>46</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="70" t="s">
-        <v>47</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
       <c r="E22" s="59"/>
       <c r="F22" s="59"/>
       <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="60"/>
     </row>
-    <row r="23" spans="1:8" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63" t="s">
+    <row r="23" spans="1:14" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="F23" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="N23" s="57" t="s">
         <v>49</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="65" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B22:N22"/>
+    <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>

--- a/QA/Functional Tests/Export/Relativity/This Instance/Push Documents/Metadata/Export medatada to another workspace.xlsx
+++ b/QA/Functional Tests/Export/Relativity/This Instance/Push Documents/Metadata/Export medatada to another workspace.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fwrona\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\integrationpoints\QA\Functional Tests\Export\Relativity\This Instance\Push Documents\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="65">
   <si>
     <t>Export medatada to another workspace</t>
   </si>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:N22"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,9 +2192,15 @@
       <c r="I23" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
+      <c r="J23" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="56" t="s">
+        <v>55</v>
+      </c>
       <c r="M23" s="55" t="s">
         <v>49</v>
       </c>

--- a/QA/Functional Tests/Export/Relativity/This Instance/Push Documents/Metadata/Export medatada to another workspace.xlsx
+++ b/QA/Functional Tests/Export/Relativity/This Instance/Push Documents/Metadata/Export medatada to another workspace.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="71">
   <si>
     <t>Export medatada to another workspace</t>
   </si>
@@ -278,6 +278,24 @@
   </si>
   <si>
     <t>Export This Instance Push Documents Metadata Append Overlay Read From Folder Path</t>
+  </si>
+  <si>
+    <t>TC-6</t>
+  </si>
+  <si>
+    <t>TC-7</t>
+  </si>
+  <si>
+    <t>TC-8</t>
+  </si>
+  <si>
+    <t>TC-9</t>
+  </si>
+  <si>
+    <t>TC-10</t>
+  </si>
+  <si>
+    <t>TC-11</t>
   </si>
 </sst>
 </file>
@@ -834,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -846,12 +864,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1337,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,27 +1361,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="63"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:14" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1405,10 +1417,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="65"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1422,789 +1434,789 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="26" t="s">
+      <c r="D12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="33" t="s">
+      <c r="L13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="36" t="s">
+      <c r="M14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="35" t="s">
+      <c r="N14" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="35" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="36" t="s">
+      <c r="M15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="N15" s="33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="35" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="35" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="45" t="s">
+      <c r="D17" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="45" t="s">
+      <c r="D18" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="35" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="36" t="s">
+      <c r="D19" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="36" t="s">
+      <c r="L19" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="35" t="s">
+      <c r="M19" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="35" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="36" t="s">
+      <c r="L20" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="M20" s="32" t="s">
+      <c r="M20" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="35" t="s">
+      <c r="N20" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="50" t="s">
+      <c r="L21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="49" t="s">
+      <c r="M21" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="51" t="s">
+      <c r="N21" s="49" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="58" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="60"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="58"/>
     </row>
     <row r="23" spans="1:14" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="I23" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="55" t="s">
+      <c r="J23" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="56" t="s">
+      <c r="K23" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="L23" s="56" t="s">
+      <c r="L23" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="M23" s="55" t="s">
+      <c r="M23" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="N23" s="57" t="s">
+      <c r="N23" s="55" t="s">
         <v>49</v>
       </c>
     </row>
